--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N2">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O2">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P2">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q2">
-        <v>52.50284847758089</v>
+        <v>136.3666034650827</v>
       </c>
       <c r="R2">
-        <v>472.5256362982279</v>
+        <v>1227.299431185744</v>
       </c>
       <c r="S2">
-        <v>0.04040277290551411</v>
+        <v>0.07674275988263052</v>
       </c>
       <c r="T2">
-        <v>0.0404027729055141</v>
+        <v>0.07674275988263055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>6.245209</v>
       </c>
       <c r="O3">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P3">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q3">
-        <v>312.3342073061142</v>
+        <v>353.7195967791043</v>
       </c>
       <c r="R3">
-        <v>2811.007865755028</v>
+        <v>3183.476371011939</v>
       </c>
       <c r="S3">
-        <v>0.240352064970364</v>
+        <v>0.1990620679230337</v>
       </c>
       <c r="T3">
-        <v>0.2403520649703639</v>
+        <v>0.1990620679230338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N4">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O4">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P4">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q4">
-        <v>31.03057782953111</v>
+        <v>61.29594049170334</v>
       </c>
       <c r="R4">
-        <v>279.27520046578</v>
+        <v>551.6634644253301</v>
       </c>
       <c r="S4">
-        <v>0.02387911181064347</v>
+        <v>0.03449539347175488</v>
       </c>
       <c r="T4">
-        <v>0.02387911181064346</v>
+        <v>0.03449539347175489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N5">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O5">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P5">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q5">
-        <v>143.7449951887258</v>
+        <v>237.7858608152427</v>
       </c>
       <c r="R5">
-        <v>1293.704956698532</v>
+        <v>2140.072747337184</v>
       </c>
       <c r="S5">
-        <v>0.1106167868090859</v>
+        <v>0.1338182718960317</v>
       </c>
       <c r="T5">
-        <v>0.1106167868090859</v>
+        <v>0.1338182718960317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N6">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O6">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P6">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q6">
-        <v>23.929431380529</v>
+        <v>54.880488236784</v>
       </c>
       <c r="R6">
-        <v>215.364882424761</v>
+        <v>493.924394131056</v>
       </c>
       <c r="S6">
-        <v>0.01841453197036412</v>
+        <v>0.03088498227555741</v>
       </c>
       <c r="T6">
-        <v>0.01841453197036411</v>
+        <v>0.03088498227555742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>6.245209</v>
       </c>
       <c r="O7">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P7">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q7">
         <v>142.353799807929</v>
@@ -883,10 +883,10 @@
         <v>1281.184198271361</v>
       </c>
       <c r="S7">
-        <v>0.1095462134465467</v>
+        <v>0.08011216235826578</v>
       </c>
       <c r="T7">
-        <v>0.1095462134465466</v>
+        <v>0.08011216235826578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N8">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O8">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P8">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q8">
-        <v>14.142929467665</v>
+        <v>24.66843828063</v>
       </c>
       <c r="R8">
-        <v>127.286365208985</v>
+        <v>222.01594452567</v>
       </c>
       <c r="S8">
-        <v>0.01088347745065242</v>
+        <v>0.0138826075266634</v>
       </c>
       <c r="T8">
-        <v>0.01088347745065242</v>
+        <v>0.0138826075266634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N9">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O9">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P9">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q9">
-        <v>65.51522628590099</v>
+        <v>95.69648143862402</v>
       </c>
       <c r="R9">
-        <v>589.637036573109</v>
+        <v>861.268332947616</v>
       </c>
       <c r="S9">
-        <v>0.05041625142706142</v>
+        <v>0.05385491689347094</v>
       </c>
       <c r="T9">
-        <v>0.0504162514270614</v>
+        <v>0.05385491689347094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N10">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O10">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P10">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q10">
-        <v>13.35284961115334</v>
+        <v>42.75580613165866</v>
       </c>
       <c r="R10">
-        <v>120.17564650038</v>
+        <v>384.802255184928</v>
       </c>
       <c r="S10">
-        <v>0.01027548344755576</v>
+        <v>0.02406159924919116</v>
       </c>
       <c r="T10">
-        <v>0.01027548344755576</v>
+        <v>0.02406159924919117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>6.245209</v>
       </c>
       <c r="O11">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P11">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q11">
-        <v>79.43477010315334</v>
+        <v>110.9037412428353</v>
       </c>
       <c r="R11">
-        <v>714.91293092838</v>
+        <v>998.1336711855179</v>
       </c>
       <c r="S11">
-        <v>0.06112782582929491</v>
+        <v>0.06241307598794595</v>
       </c>
       <c r="T11">
-        <v>0.06112782582929489</v>
+        <v>0.06241307598794597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N12">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O12">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P12">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q12">
-        <v>7.891888747366667</v>
+        <v>19.21846905127333</v>
       </c>
       <c r="R12">
-        <v>71.02699872629999</v>
+        <v>172.96622146146</v>
       </c>
       <c r="S12">
-        <v>0.00607308361548404</v>
+        <v>0.01081553927601698</v>
       </c>
       <c r="T12">
-        <v>0.006073083615484039</v>
+        <v>0.01081553927601699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N13">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O13">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P13">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q13">
-        <v>36.55811748824667</v>
+        <v>74.55436967357866</v>
       </c>
       <c r="R13">
-        <v>329.02305739422</v>
+        <v>670.989327062208</v>
       </c>
       <c r="S13">
-        <v>0.02813274634730429</v>
+        <v>0.04195681306622364</v>
       </c>
       <c r="T13">
-        <v>0.02813274634730428</v>
+        <v>0.04195681306622365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N14">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O14">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P14">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q14">
-        <v>36.651367478735</v>
+        <v>73.0471475061191</v>
       </c>
       <c r="R14">
-        <v>329.862307308615</v>
+        <v>657.424327555072</v>
       </c>
       <c r="S14">
-        <v>0.02820450546701663</v>
+        <v>0.04110859667050807</v>
       </c>
       <c r="T14">
-        <v>0.02820450546701662</v>
+        <v>0.04110859667050808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>6.245209</v>
       </c>
       <c r="O15">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P15">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q15">
-        <v>218.035328369735</v>
+        <v>189.4760660248035</v>
       </c>
       <c r="R15">
-        <v>1962.317955327615</v>
+        <v>1705.284594223232</v>
       </c>
       <c r="S15">
-        <v>0.1677857890179656</v>
+        <v>0.1066310655905588</v>
       </c>
       <c r="T15">
-        <v>0.1677857890179655</v>
+        <v>0.1066310655905588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1423,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N16">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O16">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P16">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q16">
-        <v>21.661931572975</v>
+        <v>32.83423868344889</v>
       </c>
       <c r="R16">
-        <v>194.957384156775</v>
+        <v>295.50814815104</v>
       </c>
       <c r="S16">
-        <v>0.01666961179089956</v>
+        <v>0.01847805863888148</v>
       </c>
       <c r="T16">
-        <v>0.01666961179089955</v>
+        <v>0.01847805863888149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N17">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O17">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P17">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q17">
-        <v>100.345996353715</v>
+        <v>127.3741400641991</v>
       </c>
       <c r="R17">
-        <v>903.1139671834351</v>
+        <v>1146.367260577792</v>
       </c>
       <c r="S17">
-        <v>0.07721974369424724</v>
+        <v>0.07168208929326549</v>
       </c>
       <c r="T17">
-        <v>0.07721974369424721</v>
+        <v>0.0716820892932655</v>
       </c>
     </row>
   </sheetData>
